--- a/pre-waf/tests/test_data/test_dfs_kiz.xlsx
+++ b/pre-waf/tests/test_data/test_dfs_kiz.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>hid</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>alg2_grossek_hh</t>
+  </si>
+  <si>
+    <t>uhv</t>
   </si>
 </sst>
 </file>
@@ -535,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO43"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO18" sqref="AO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +616,9 @@
       <c r="T1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="12"/>
+      <c r="U1" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="V1" s="12" t="s">
         <v>2</v>
       </c>
@@ -734,6 +739,9 @@
       <c r="T2">
         <f>N2*190</f>
         <v>190</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
       </c>
       <c r="V2">
         <v>2016</v>
@@ -776,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="AH2" s="8">
-        <f>AF2*140*N2-AG2</f>
+        <f t="shared" ref="AH2:AH13" si="1">AF2*140*N2-AG2</f>
         <v>140</v>
       </c>
       <c r="AI2" s="28">
@@ -871,76 +879,79 @@
         <f>N3*190</f>
         <v>190</v>
       </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
       <c r="V3">
         <v>2016</v>
       </c>
       <c r="W3" s="11">
-        <f t="shared" ref="W3:W16" si="1">IF(OR($AN3=TRUE,$AO3=TRUE),$AH3,0)</f>
+        <f t="shared" ref="W3:W18" si="2">IF(OR($AN3=TRUE,$AO3=TRUE),$AH3,0)</f>
         <v>140</v>
       </c>
       <c r="X3" s="1">
-        <f t="shared" ref="X3:X16" si="2">IF(AND($AM3=FALSE,$AN3=FALSE,$AO3=FALSE),$AI3,0)</f>
+        <f t="shared" ref="X3:X18" si="3">IF(AND($AM3=FALSE,$AN3=FALSE,$AO3=FALSE),$AI3,0)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <f t="shared" ref="Y3:Y16" si="3">IF(OR($AM3=TRUE,$AO3=TRUE),$Q3,0)</f>
+        <f t="shared" ref="Y3:Y18" si="4">IF(OR($AM3=TRUE,$AO3=TRUE),$Q3,0)</f>
         <v>350</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA4" si="4">2*364</f>
+        <f t="shared" ref="AA3:AA4" si="5">2*364</f>
         <v>728</v>
       </c>
       <c r="AB3" s="8">
-        <f t="shared" ref="AB3:AB4" si="5">0.8316*(I3+J3)</f>
+        <f t="shared" ref="AB3:AB4" si="6">0.8316*(I3+J3)</f>
         <v>665.28</v>
       </c>
       <c r="AC3" s="8"/>
       <c r="AD3" s="24">
-        <f t="shared" ref="AD3:AD16" si="6">AA3+AB3</f>
+        <f t="shared" ref="AD3:AD16" si="7">AA3+AB3</f>
         <v>1393.28</v>
       </c>
       <c r="AE3" s="10">
-        <f t="shared" ref="AE3:AE4" si="7">AD3+170*N3</f>
+        <f t="shared" ref="AE3:AE4" si="8">AD3+170*N3</f>
         <v>1563.28</v>
       </c>
       <c r="AF3" t="b">
-        <f t="shared" ref="AF3:AF13" si="8">AND((O3&gt;900),(P3&lt;=AE3))</f>
+        <f t="shared" ref="AF3:AF13" si="9">AND((O3&gt;900),(P3&lt;=AE3))</f>
         <v>1</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG16" si="9">ROUND(MAX(P3-AD3,0)/10,0)*5</f>
+        <f t="shared" ref="AG3:AG16" si="10">ROUND(MAX(P3-AD3,0)/10,0)*5</f>
         <v>0</v>
       </c>
       <c r="AH3" s="8">
-        <f>AF3*140*N3-AG3</f>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="AI3" s="28">
-        <f t="shared" ref="AI3:AI16" si="10">MAX(R3-S3,0)</f>
+        <f t="shared" ref="AI3:AI16" si="11">MAX(R3-S3,0)</f>
         <v>465</v>
       </c>
       <c r="AJ3" s="28">
-        <f t="shared" ref="AJ3:AJ16" si="11">MAX(R3-S3-Q3,0)</f>
+        <f t="shared" ref="AJ3:AJ16" si="12">MAX(R3-S3-Q3,0)</f>
         <v>115</v>
       </c>
       <c r="AK3" s="28">
-        <f t="shared" ref="AK3:AK16" si="12">MAX(R3-S3-AH3,0)</f>
+        <f t="shared" ref="AK3:AK16" si="13">MAX(R3-S3-AH3,0)</f>
         <v>325</v>
       </c>
       <c r="AL3" s="28">
-        <f t="shared" ref="AL3:AL16" si="13">MAX(R3-S3-Q3-AH3,0)</f>
+        <f t="shared" ref="AL3:AL16" si="14">MAX(R3-S3-Q3-AH3,0)</f>
         <v>0</v>
       </c>
       <c r="AM3" t="b">
-        <f t="shared" ref="AM3:AM16" si="14">AND(AJ3=0,AI3&gt;0)</f>
+        <f t="shared" ref="AM3:AM16" si="15">AND(AJ3=0,AI3&gt;0)</f>
         <v>0</v>
       </c>
       <c r="AN3" t="b">
-        <f t="shared" ref="AN3:AN16" si="15">AND(AK3=0,AI3&gt;0)</f>
+        <f t="shared" ref="AN3:AN16" si="16">AND(AK3=0,AI3&gt;0)</f>
         <v>0</v>
       </c>
       <c r="AO3" t="b">
-        <f t="shared" ref="AO3:AO16" si="16">AND(AL3=0,AI3&gt;0)</f>
+        <f t="shared" ref="AO3:AO16" si="17">AND(AL3=0,AI3&gt;0)</f>
         <v>1</v>
       </c>
     </row>
@@ -1007,76 +1018,79 @@
         <f>N4*190</f>
         <v>190</v>
       </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
       <c r="V4">
         <v>2016</v>
       </c>
       <c r="W4" s="11">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="X4" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="5"/>
+        <v>728</v>
+      </c>
+      <c r="AB4" s="8">
+        <f t="shared" si="6"/>
+        <v>665.28</v>
+      </c>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="24">
+        <f t="shared" si="7"/>
+        <v>1393.28</v>
+      </c>
+      <c r="AE4" s="10">
+        <f t="shared" si="8"/>
+        <v>1563.28</v>
+      </c>
+      <c r="AF4" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="8">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="X4" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="1">
-        <f t="shared" si="3"/>
-        <v>350</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="4"/>
-        <v>728</v>
-      </c>
-      <c r="AB4" s="8">
-        <f t="shared" si="5"/>
-        <v>665.28</v>
-      </c>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="24">
-        <f t="shared" si="6"/>
-        <v>1393.28</v>
-      </c>
-      <c r="AE4" s="10">
-        <f t="shared" si="7"/>
-        <v>1563.28</v>
-      </c>
-      <c r="AF4" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="8">
-        <f>AF4*140*N4-AG4</f>
-        <v>140</v>
-      </c>
       <c r="AI4" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>465</v>
       </c>
       <c r="AJ4" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>115</v>
       </c>
       <c r="AK4" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>325</v>
       </c>
       <c r="AL4" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM4" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AO4" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -1142,20 +1156,22 @@
       <c r="T5" s="2">
         <v>0</v>
       </c>
-      <c r="U5" s="2"/>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
       <c r="V5" s="2">
         <v>2013</v>
       </c>
       <c r="W5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>470</v>
       </c>
       <c r="Y5" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z5" s="2"/>
@@ -1166,45 +1182,45 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="8"/>
       <c r="AD5" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>690</v>
       </c>
       <c r="AE5" s="14"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH5" s="9">
-        <f>AF5*140*N5-AG5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI5" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>470</v>
       </c>
       <c r="AJ5" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="AK5" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>470</v>
       </c>
       <c r="AL5" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
       <c r="AM5" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN5" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AO5" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -1270,20 +1286,22 @@
       <c r="T6" s="3">
         <v>0</v>
       </c>
-      <c r="U6" s="3"/>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
       <c r="V6" s="3">
         <v>2013</v>
       </c>
       <c r="W6" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>470</v>
       </c>
       <c r="Y6" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA6" s="6">
@@ -1293,45 +1311,45 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>690</v>
       </c>
       <c r="AE6" s="16"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH6" s="17">
-        <f>AF6*140*N6-AG6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI6" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>470</v>
       </c>
       <c r="AJ6" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="AK6" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>470</v>
       </c>
       <c r="AL6" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
       <c r="AM6" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN6" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AO6" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -1397,20 +1415,22 @@
       <c r="T7" s="2">
         <v>164</v>
       </c>
-      <c r="U7" s="2"/>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
       <c r="V7" s="2">
         <v>2009</v>
       </c>
       <c r="W7" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y7" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="Z7" s="2"/>
@@ -1424,7 +1444,7 @@
       </c>
       <c r="AC7" s="8"/>
       <c r="AD7" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>852.56</v>
       </c>
       <c r="AE7" s="10">
@@ -1436,39 +1456,39 @@
         <v>1</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH7" s="9">
-        <f>AF7*140*N7-AG7</f>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="AI7" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>628.63999999999987</v>
       </c>
       <c r="AJ7" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>128.63999999999987</v>
       </c>
       <c r="AK7" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>488.63999999999987</v>
       </c>
       <c r="AL7" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM7" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN7" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AO7" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -1534,20 +1554,22 @@
       <c r="T8" s="3">
         <v>164</v>
       </c>
-      <c r="U8" s="3"/>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
       <c r="V8" s="3">
         <v>2009</v>
       </c>
       <c r="W8" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="X8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y8" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="AA8" s="4">
@@ -1560,7 +1582,7 @@
       </c>
       <c r="AC8" s="8"/>
       <c r="AD8" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>852.56</v>
       </c>
       <c r="AE8" s="10">
@@ -1572,39 +1594,39 @@
         <v>1</v>
       </c>
       <c r="AG8" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH8" s="8">
-        <f>AF8*140*N8-AG8</f>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="AI8" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>628.63999999999987</v>
       </c>
       <c r="AJ8" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>128.63999999999987</v>
       </c>
       <c r="AK8" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>488.63999999999987</v>
       </c>
       <c r="AL8" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM8" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN8" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AO8" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -1671,20 +1693,22 @@
         <f>3*154</f>
         <v>462</v>
       </c>
-      <c r="U9" s="2"/>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
       <c r="V9" s="2">
         <v>2006</v>
       </c>
       <c r="W9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1819</v>
       </c>
       <c r="Y9" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z9" s="2"/>
@@ -1698,51 +1722,51 @@
       </c>
       <c r="AC9" s="9"/>
       <c r="AD9" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1223.5639999999999</v>
       </c>
       <c r="AE9" s="14">
-        <f t="shared" ref="AE9:AE13" si="17">AD9+140*N9</f>
+        <f t="shared" ref="AE9:AE13" si="18">AD9+140*N9</f>
         <v>1643.5639999999999</v>
       </c>
       <c r="AF9" s="2" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AG9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="AH9" s="9">
-        <f>AF9*140*N9-AG9</f>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
       <c r="AI9" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1819</v>
       </c>
       <c r="AJ9" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1169</v>
       </c>
       <c r="AK9" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1539</v>
       </c>
       <c r="AL9" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>889</v>
       </c>
       <c r="AM9" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN9" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AO9" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -1806,80 +1830,82 @@
         <v>462</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" ref="T10:T13" si="18">3*154</f>
+        <f t="shared" ref="T10:T13" si="19">3*154</f>
         <v>462</v>
       </c>
-      <c r="U10" s="3"/>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
       <c r="V10" s="4">
         <v>2006</v>
       </c>
       <c r="W10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1819</v>
       </c>
       <c r="Y10" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA10" s="3">
-        <f t="shared" ref="AA10:AA13" si="19">345*0.9*2</f>
+        <f t="shared" ref="AA10:AA13" si="20">345*0.9*2</f>
         <v>621</v>
       </c>
       <c r="AB10" s="8">
-        <f t="shared" ref="AB10:AB13" si="20">0.6212*(I10+J10)</f>
+        <f t="shared" ref="AB10:AB13" si="21">0.6212*(I10+J10)</f>
         <v>602.56399999999996</v>
       </c>
       <c r="AC10" s="8"/>
       <c r="AD10" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1223.5639999999999</v>
       </c>
       <c r="AE10" s="15">
+        <f t="shared" si="18"/>
+        <v>1643.5639999999999</v>
+      </c>
+      <c r="AF10" s="4" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AG10" s="4">
+        <f t="shared" si="10"/>
+        <v>140</v>
+      </c>
+      <c r="AH10" s="8">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="AI10" s="33">
+        <f t="shared" si="11"/>
+        <v>1819</v>
+      </c>
+      <c r="AJ10" s="31">
+        <f t="shared" si="12"/>
+        <v>1169</v>
+      </c>
+      <c r="AK10" s="33">
+        <f t="shared" si="13"/>
+        <v>1539</v>
+      </c>
+      <c r="AL10" s="28">
+        <f t="shared" si="14"/>
+        <v>889</v>
+      </c>
+      <c r="AM10" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AN10" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" t="b">
         <f t="shared" si="17"/>
-        <v>1643.5639999999999</v>
-      </c>
-      <c r="AF10" s="4" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AG10" s="4">
-        <f t="shared" si="9"/>
-        <v>140</v>
-      </c>
-      <c r="AH10" s="8">
-        <f>AF10*140*N10-AG10</f>
-        <v>280</v>
-      </c>
-      <c r="AI10" s="33">
-        <f t="shared" si="10"/>
-        <v>1819</v>
-      </c>
-      <c r="AJ10" s="31">
-        <f t="shared" si="11"/>
-        <v>1169</v>
-      </c>
-      <c r="AK10" s="33">
-        <f t="shared" si="12"/>
-        <v>1539</v>
-      </c>
-      <c r="AL10" s="28">
-        <f t="shared" si="13"/>
-        <v>889</v>
-      </c>
-      <c r="AM10" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AN10" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AO10" t="b">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -1943,80 +1969,82 @@
         <v>462</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>462</v>
       </c>
-      <c r="U11" s="3"/>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
       <c r="V11" s="4">
         <v>2006</v>
       </c>
       <c r="W11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1819</v>
       </c>
       <c r="Y11" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA11" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>621</v>
       </c>
       <c r="AB11" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>602.56399999999996</v>
       </c>
       <c r="AC11" s="8"/>
       <c r="AD11" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1223.5639999999999</v>
       </c>
       <c r="AE11" s="10">
+        <f t="shared" si="18"/>
+        <v>1643.5639999999999</v>
+      </c>
+      <c r="AF11" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="10"/>
+        <v>140</v>
+      </c>
+      <c r="AH11" s="8">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="AI11" s="28">
+        <f t="shared" si="11"/>
+        <v>1819</v>
+      </c>
+      <c r="AJ11" s="31">
+        <f t="shared" si="12"/>
+        <v>1169</v>
+      </c>
+      <c r="AK11" s="28">
+        <f t="shared" si="13"/>
+        <v>1539</v>
+      </c>
+      <c r="AL11" s="28">
+        <f t="shared" si="14"/>
+        <v>889</v>
+      </c>
+      <c r="AM11" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AN11" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" t="b">
         <f t="shared" si="17"/>
-        <v>1643.5639999999999</v>
-      </c>
-      <c r="AF11" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AG11">
-        <f t="shared" si="9"/>
-        <v>140</v>
-      </c>
-      <c r="AH11" s="8">
-        <f>AF11*140*N11-AG11</f>
-        <v>280</v>
-      </c>
-      <c r="AI11" s="28">
-        <f t="shared" si="10"/>
-        <v>1819</v>
-      </c>
-      <c r="AJ11" s="31">
-        <f t="shared" si="11"/>
-        <v>1169</v>
-      </c>
-      <c r="AK11" s="28">
-        <f t="shared" si="12"/>
-        <v>1539</v>
-      </c>
-      <c r="AL11" s="28">
-        <f t="shared" si="13"/>
-        <v>889</v>
-      </c>
-      <c r="AM11" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AN11" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AO11" t="b">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -2080,81 +2108,83 @@
         <v>462</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>462</v>
       </c>
-      <c r="U12" s="3"/>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
       <c r="V12" s="4">
         <v>2006</v>
       </c>
       <c r="W12" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1819</v>
       </c>
       <c r="Y12" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z12" s="22"/>
       <c r="AA12" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>621</v>
       </c>
       <c r="AB12" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>602.56399999999996</v>
       </c>
       <c r="AC12" s="8"/>
       <c r="AD12" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1223.5639999999999</v>
       </c>
       <c r="AE12" s="10">
+        <f t="shared" si="18"/>
+        <v>1643.5639999999999</v>
+      </c>
+      <c r="AF12" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="10"/>
+        <v>140</v>
+      </c>
+      <c r="AH12" s="8">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="AI12" s="28">
+        <f t="shared" si="11"/>
+        <v>1819</v>
+      </c>
+      <c r="AJ12" s="31">
+        <f t="shared" si="12"/>
+        <v>1169</v>
+      </c>
+      <c r="AK12" s="28">
+        <f t="shared" si="13"/>
+        <v>1539</v>
+      </c>
+      <c r="AL12" s="28">
+        <f t="shared" si="14"/>
+        <v>889</v>
+      </c>
+      <c r="AM12" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AN12" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" t="b">
         <f t="shared" si="17"/>
-        <v>1643.5639999999999</v>
-      </c>
-      <c r="AF12" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="9"/>
-        <v>140</v>
-      </c>
-      <c r="AH12" s="8">
-        <f>AF12*140*N12-AG12</f>
-        <v>280</v>
-      </c>
-      <c r="AI12" s="28">
-        <f t="shared" si="10"/>
-        <v>1819</v>
-      </c>
-      <c r="AJ12" s="31">
-        <f t="shared" si="11"/>
-        <v>1169</v>
-      </c>
-      <c r="AK12" s="28">
-        <f t="shared" si="12"/>
-        <v>1539</v>
-      </c>
-      <c r="AL12" s="28">
-        <f t="shared" si="13"/>
-        <v>889</v>
-      </c>
-      <c r="AM12" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AN12" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AO12" t="b">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -2218,81 +2248,83 @@
         <v>462</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>462</v>
       </c>
-      <c r="U13" s="3"/>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
       <c r="V13" s="4">
         <v>2006</v>
       </c>
       <c r="W13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1819</v>
       </c>
       <c r="Y13" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z13" s="22"/>
       <c r="AA13" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>621</v>
       </c>
       <c r="AB13" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>602.56399999999996</v>
       </c>
       <c r="AC13" s="8"/>
       <c r="AD13" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1223.5639999999999</v>
       </c>
       <c r="AE13" s="10">
+        <f t="shared" si="18"/>
+        <v>1643.5639999999999</v>
+      </c>
+      <c r="AF13" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="10"/>
+        <v>140</v>
+      </c>
+      <c r="AH13" s="8">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="AI13" s="28">
+        <f t="shared" si="11"/>
+        <v>1819</v>
+      </c>
+      <c r="AJ13" s="31">
+        <f t="shared" si="12"/>
+        <v>1169</v>
+      </c>
+      <c r="AK13" s="28">
+        <f t="shared" si="13"/>
+        <v>1539</v>
+      </c>
+      <c r="AL13" s="28">
+        <f t="shared" si="14"/>
+        <v>889</v>
+      </c>
+      <c r="AM13" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" t="b">
         <f t="shared" si="17"/>
-        <v>1643.5639999999999</v>
-      </c>
-      <c r="AF13" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" si="9"/>
-        <v>140</v>
-      </c>
-      <c r="AH13" s="8">
-        <f>AF13*140*N13-AG13</f>
-        <v>280</v>
-      </c>
-      <c r="AI13" s="28">
-        <f t="shared" si="10"/>
-        <v>1819</v>
-      </c>
-      <c r="AJ13" s="31">
-        <f t="shared" si="11"/>
-        <v>1169</v>
-      </c>
-      <c r="AK13" s="28">
-        <f t="shared" si="12"/>
-        <v>1539</v>
-      </c>
-      <c r="AL13" s="28">
-        <f t="shared" si="13"/>
-        <v>889</v>
-      </c>
-      <c r="AM13" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AN13" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AO13" t="b">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -2357,20 +2389,22 @@
       <c r="T14" s="2">
         <v>0</v>
       </c>
-      <c r="U14" s="2"/>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
       <c r="V14" s="2">
         <v>2011</v>
       </c>
       <c r="W14" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y14" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="Z14" s="7"/>
@@ -2381,44 +2415,44 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>873</v>
       </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>355</v>
       </c>
       <c r="AH14" s="8">
         <v>0</v>
       </c>
       <c r="AI14" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>125</v>
       </c>
       <c r="AJ14" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK14" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>125</v>
       </c>
       <c r="AL14" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM14" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AN14" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AO14" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -2483,64 +2517,66 @@
       <c r="T15">
         <v>0</v>
       </c>
-      <c r="U15" s="3"/>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
       <c r="V15" s="2">
         <v>2011</v>
       </c>
       <c r="W15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="Z15" s="3"/>
       <c r="AA15">
-        <f t="shared" ref="AA15:AA16" si="21">3*291</f>
+        <f t="shared" ref="AA15:AA16" si="22">3*291</f>
         <v>873</v>
       </c>
       <c r="AD15" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>873</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>355</v>
       </c>
       <c r="AH15" s="8">
         <v>0</v>
       </c>
       <c r="AI15" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>125</v>
       </c>
       <c r="AJ15" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK15" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>125</v>
       </c>
       <c r="AL15" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM15" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AN15" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AO15" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -2605,141 +2641,403 @@
       <c r="T16">
         <v>0</v>
       </c>
-      <c r="U16" s="3"/>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
       <c r="V16" s="2">
         <v>2011</v>
       </c>
       <c r="W16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>873</v>
       </c>
       <c r="AD16" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>873</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>355</v>
       </c>
       <c r="AH16" s="8">
         <v>0</v>
       </c>
       <c r="AI16" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>125</v>
       </c>
       <c r="AJ16" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK16" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>125</v>
       </c>
       <c r="AL16" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM16" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AN16" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AO16" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="23:34" x14ac:dyDescent="0.25">
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="22"/>
-      <c r="AD17" s="24"/>
-      <c r="AH17" s="8"/>
-    </row>
-    <row r="18" spans="23:34" x14ac:dyDescent="0.25">
-      <c r="Z18" s="22"/>
-      <c r="AD18" s="24"/>
-      <c r="AH18" s="8"/>
-    </row>
-    <row r="19" spans="23:34" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>28</v>
+      </c>
+      <c r="I17" s="2">
+        <v>400</v>
+      </c>
+      <c r="J17" s="2">
+        <v>80</v>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" ref="M17:M18" si="23">F17-N17</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="2">
+        <v>719</v>
+      </c>
+      <c r="Q17" s="2">
+        <f>500-(0.9*160)</f>
+        <v>356</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1183.6399999999999</v>
+      </c>
+      <c r="S17" s="2">
+        <v>555</v>
+      </c>
+      <c r="T17" s="2">
+        <v>194</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>2019</v>
+      </c>
+      <c r="W17" s="20">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <f t="shared" si="3"/>
+        <v>628.63999999999987</v>
+      </c>
+      <c r="Y17" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="4">
+        <f>359*(1+L17)</f>
+        <v>488.23999999999995</v>
+      </c>
+      <c r="AB17" s="9">
+        <f>0.759*(I17+J17)</f>
+        <v>364.32</v>
+      </c>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="25">
+        <f t="shared" ref="AD17:AD18" si="24">AA17+AB17</f>
+        <v>852.56</v>
+      </c>
+      <c r="AE17" s="10">
+        <f>AD17+140*N17</f>
+        <v>992.56</v>
+      </c>
+      <c r="AF17" t="b">
+        <f>AND((O17&gt;600),(P17&lt;=AE17))</f>
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" ref="AG17:AG18" si="25">ROUND(MAX(P17-AD17,0)/10,0)*5</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="29">
+        <f t="shared" ref="AI17:AI18" si="26">MAX(R17-S17,0)</f>
+        <v>628.63999999999987</v>
+      </c>
+      <c r="AJ17" s="29">
+        <f t="shared" ref="AJ17:AJ18" si="27">MAX(R17-S17-Q17,0)</f>
+        <v>272.63999999999987</v>
+      </c>
+      <c r="AK17" s="29">
+        <f t="shared" ref="AK17:AK18" si="28">MAX(R17-S17-AH17,0)</f>
+        <v>628.63999999999987</v>
+      </c>
+      <c r="AL17" s="28">
+        <f t="shared" ref="AL17:AL18" si="29">MAX(R17-S17-Q17-AH17,0)</f>
+        <v>272.63999999999987</v>
+      </c>
+      <c r="AM17" t="b">
+        <f t="shared" ref="AM17:AM18" si="30">AND(AJ17=0,AI17&gt;0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN17" t="b">
+        <f t="shared" ref="AN17:AN18" si="31">AND(AK17=0,AI17&gt;0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO17" t="b">
+        <f t="shared" ref="AO17:AO18" si="32">AND(AL17=0,AI17&gt;0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>80</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P18" s="3">
+        <v>719</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>256</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1183.6399999999999</v>
+      </c>
+      <c r="S18" s="2">
+        <v>555</v>
+      </c>
+      <c r="T18" s="3">
+        <v>194</v>
+      </c>
+      <c r="U18" s="3">
+        <v>160</v>
+      </c>
+      <c r="V18" s="3">
+        <v>2019</v>
+      </c>
+      <c r="W18" s="21">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <f t="shared" si="3"/>
+        <v>628.63999999999987</v>
+      </c>
+      <c r="Y18" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4">
+        <f>359*(1+L18)</f>
+        <v>488.23999999999995</v>
+      </c>
+      <c r="AB18" s="8">
+        <f>0.759*(I18+J18)</f>
+        <v>364.32</v>
+      </c>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="27">
+        <f t="shared" si="24"/>
+        <v>852.56</v>
+      </c>
+      <c r="AE18" s="10">
+        <f>AD18+140*N18</f>
+        <v>992.56</v>
+      </c>
+      <c r="AF18" s="3" t="b">
+        <f>AND((O18&gt;600),(P18&lt;=AE18))</f>
+        <v>1</v>
+      </c>
+      <c r="AG18" s="3">
+        <f>ROUND(MAX(P18-AD18,0)/10,0)*5</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="31">
+        <f t="shared" si="26"/>
+        <v>628.63999999999987</v>
+      </c>
+      <c r="AJ18" s="31">
+        <f t="shared" si="27"/>
+        <v>372.63999999999987</v>
+      </c>
+      <c r="AK18" s="31">
+        <f t="shared" si="28"/>
+        <v>628.63999999999987</v>
+      </c>
+      <c r="AL18" s="28">
+        <f t="shared" si="29"/>
+        <v>372.63999999999987</v>
+      </c>
+      <c r="AM18" t="b">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" t="b">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AO18" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="Z19" s="22"/>
       <c r="AD19" s="24"/>
       <c r="AH19" s="8"/>
     </row>
-    <row r="20" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="Z20" s="22"/>
-      <c r="AD20" s="24"/>
+      <c r="AD20" s="8"/>
       <c r="AH20" s="8"/>
     </row>
-    <row r="21" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="Z21" s="22"/>
       <c r="AD21" s="8"/>
       <c r="AH21" s="8"/>
     </row>
-    <row r="22" spans="23:34" x14ac:dyDescent="0.25">
-      <c r="Z22" s="22"/>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AD22" s="8"/>
       <c r="AH22" s="8"/>
     </row>
-    <row r="23" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AD23" s="8"/>
       <c r="AH23" s="8"/>
     </row>
-    <row r="24" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AD24" s="8"/>
       <c r="AH24" s="8"/>
     </row>
-    <row r="25" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AD25" s="8"/>
+      <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
     </row>
-    <row r="26" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AD26" s="8"/>
       <c r="AG26" s="8"/>
       <c r="AH26" s="8"/>
     </row>
-    <row r="27" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AD27" s="8"/>
       <c r="AG27" s="8"/>
       <c r="AH27" s="8"/>
     </row>
-    <row r="28" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AD28" s="8"/>
       <c r="AG28" s="8"/>
       <c r="AH28" s="8"/>
     </row>
-    <row r="29" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AD29" s="8"/>
       <c r="AG29" s="8"/>
-      <c r="AH29" s="8"/>
-    </row>
-    <row r="30" spans="23:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AD30" s="8"/>
       <c r="AG30" s="8"/>
     </row>
-    <row r="31" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AD31" s="8"/>
       <c r="AG31" s="8"/>
     </row>
-    <row r="32" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AD32" s="8"/>
       <c r="AG32" s="8"/>
     </row>
@@ -2782,10 +3080,6 @@
     <row r="42" spans="30:33" x14ac:dyDescent="0.25">
       <c r="AD42" s="8"/>
       <c r="AG42" s="8"/>
-    </row>
-    <row r="43" spans="30:33" x14ac:dyDescent="0.25">
-      <c r="AD43" s="8"/>
-      <c r="AG43" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
